--- a/biology/Zoologie/Grisin_étoilé/Grisin_étoilé.xlsx
+++ b/biology/Zoologie/Grisin_étoilé/Grisin_étoilé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A9toil%C3%A9</t>
+          <t>Grisin_étoilé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microrhopias quixensis
 Le Grisin étoilé (Microrhopias quixensis) est une espèce de passereaux de la famille des Thamnophilidae (Thamnophilidés en français). C'est la seule espèce du genre Microrhopias.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A9toil%C3%A9</t>
+          <t>Grisin_étoilé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grisin étoilé est un petit oiseau de 11 cm environ. Le mâle est noir intense, avec les flancs ardoise. Une tache blanche sur le dos est dissimulée par les plumes de couverture. Il a une bande alaire et les rectrices externes blanches et le dessus des ailes est tacheté de blanc. La femelle est semblable au mâle mais dans une teinte grisâtre et le dessous est roux.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A9toil%C3%A9</t>
+          <t>Grisin_étoilé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes qu'il attrape sur le feuillage des arbres.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A9toil%C3%A9</t>
+          <t>Grisin_étoilé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve du sud-est du Mexique à travers toute l'Amérique centrale, ainsi qu'en Amérique du Sud, en Colombie, à l'ouest de l'Équateur, au sud-est du Pérou, au nord-est de la Bolivie mais également dans le centre du Brésil, ainsi qu'au Guyana, au Surinam et en Guyane française. Il vit à l'orée et dans les clairières des forêts humides et on le trouve parfois dans les plantations de cacao. On peut le voir en bandes avec d'autres espèces du genre Myrmotherula.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A9toil%C3%A9</t>
+          <t>Grisin_étoilé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid, en forme de coupe, est petit mais profond et il est construit dans un arbre, à l'abri du feuillage. La femelle y pond 2 œufs que les parents couvent à tour de rôle. Les petits sont nourris également par les deux parents.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grisin_%C3%A9toil%C3%A9</t>
+          <t>Grisin_étoilé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Microrhopias quixensis boucardi (P.L. Sclater, 1858) ;
